--- a/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,34</t>
+          <t>-0,26; 4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,79</t>
+          <t>-1,36; 2,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,25</t>
+          <t>4,38; 10,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,4</t>
+          <t>5,63; 10,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,97</t>
+          <t>1,07; 6,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 13,14</t>
+          <t>8,18; 13,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,97</t>
+          <t>3,68; 7,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,97</t>
+          <t>0,22; 3,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,62</t>
+          <t>7,63; 11,35</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 98,06</t>
+          <t>-4,48; 95,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 63,65</t>
+          <t>-21,68; 69,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,75; 245,93</t>
+          <t>68,39; 233,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,49; 167,64</t>
+          <t>67,98; 179,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 94,6</t>
+          <t>13,37; 97,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>99,93; 215,28</t>
+          <t>98,59; 218,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 124,51</t>
+          <t>53,12; 125,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 71,21</t>
+          <t>3,09; 71,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>104,66; 204,06</t>
+          <t>108,07; 202,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,74</t>
+          <t>0,46; 2,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,72</t>
+          <t>-0,51; 1,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,74</t>
+          <t>0,52; 2,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,6</t>
+          <t>1,57; 4,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,47</t>
+          <t>-1,02; 1,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,76</t>
+          <t>0,18; 2,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,23</t>
+          <t>1,2; 3,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,27</t>
+          <t>-0,47; 1,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,39</t>
+          <t>0,69; 2,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,19; 157,02</t>
+          <t>14,5; 151,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 100,79</t>
+          <t>-17,68; 91,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 160,96</t>
+          <t>18,9; 160,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,38; 179,53</t>
+          <t>37,84; 176,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 58,53</t>
+          <t>-26,94; 58,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 110,04</t>
+          <t>3,87; 99,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,16; 137,34</t>
+          <t>36,94; 136,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 52,53</t>
+          <t>-14,96; 49,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,11; 105,27</t>
+          <t>21,41; 104,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,04</t>
+          <t>-1,04; 2,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,37</t>
+          <t>-1,28; 2,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,78</t>
+          <t>0,07; 3,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,06</t>
+          <t>-2,78; 2,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,17</t>
+          <t>-2,68; 2,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,09</t>
+          <t>-3,12; 0,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,95</t>
+          <t>-1,04; 2,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,53</t>
+          <t>-1,25; 1,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,87</t>
+          <t>-0,92; 1,96</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,62; 268,96</t>
+          <t>-42,65; 261,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 218,46</t>
+          <t>-51,28; 213,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 349,91</t>
+          <t>-6,26; 336,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,15; 73,33</t>
+          <t>-57,64; 86,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,32; 93,58</t>
+          <t>-54,34; 84,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,04; 45,17</t>
+          <t>-57,42; 36,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 93,95</t>
+          <t>-32,07; 104,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 71,25</t>
+          <t>-37,43; 80,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 85,13</t>
+          <t>-24,53; 102,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,5</t>
+          <t>0,48; 2,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,17</t>
+          <t>-0,73; 1,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,11</t>
+          <t>1,14; 3,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,64</t>
+          <t>3,19; 5,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,75</t>
+          <t>-0,37; 1,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,4</t>
+          <t>1,17; 3,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,77</t>
+          <t>2,18; 3,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,24</t>
+          <t>-0,2; 1,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,97</t>
+          <t>1,55; 3,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,26; 93,03</t>
+          <t>12,41; 87,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 42,68</t>
+          <t>-18,31; 41,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,4; 114,46</t>
+          <t>30,15; 112,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,42; 134,75</t>
+          <t>58,96; 130,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 39,86</t>
+          <t>-7,06; 40,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,8; 79,76</t>
+          <t>22,44; 79,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,76; 102,39</t>
+          <t>49,29; 105,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 32,52</t>
+          <t>-4,38; 32,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,48; 81,81</t>
+          <t>34,53; 81,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,27</t>
+          <t>-0,31; 4,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,94</t>
+          <t>-1,53; 2,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 10,28</t>
+          <t>4,4; 10,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,62</t>
+          <t>5,59; 10,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,19</t>
+          <t>1,12; 6,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 13,25</t>
+          <t>8,27; 13,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,2</t>
+          <t>3,8; 7,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,96</t>
+          <t>0,53; 3,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 11,35</t>
+          <t>7,42; 11,42</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 95,03</t>
+          <t>-7,74; 91,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 69,07</t>
+          <t>-24,48; 62,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,39; 233,07</t>
+          <t>68,46; 237,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,98; 179,16</t>
+          <t>67,92; 176,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 97,93</t>
+          <t>12,58; 97,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,59; 218,24</t>
+          <t>99,68; 218,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,12; 125,91</t>
+          <t>52,91; 124,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 71,76</t>
+          <t>8,18; 67,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>108,07; 202,16</t>
+          <t>104,3; 200,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,69</t>
+          <t>0,37; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,62</t>
+          <t>-0,49; 1,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,78</t>
+          <t>0,45; 2,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,52</t>
+          <t>1,56; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,49</t>
+          <t>-0,98; 1,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,61</t>
+          <t>0,25; 2,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,24</t>
+          <t>1,33; 3,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,17</t>
+          <t>-0,4; 1,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,42</t>
+          <t>0,74; 2,43</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 151,48</t>
+          <t>12,49; 149,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 91,29</t>
+          <t>-20,64; 88,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 160,57</t>
+          <t>14,24; 147,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,84; 176,3</t>
+          <t>40,02; 172,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 58,79</t>
+          <t>-24,74; 56,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 99,66</t>
+          <t>5,33; 99,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,94; 136,68</t>
+          <t>41,77; 139,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 49,2</t>
+          <t>-13,32; 53,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,41; 104,26</t>
+          <t>22,6; 104,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,86</t>
+          <t>-1,23; 2,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,38</t>
+          <t>-1,22; 2,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,87</t>
+          <t>0,07; 3,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,32</t>
+          <t>-2,94; 2,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 2,12</t>
+          <t>-2,83; 2,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,96</t>
+          <t>-3,03; 0,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,19</t>
+          <t>-1,18; 2,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,57</t>
+          <t>-1,35; 1,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,96</t>
+          <t>-0,76; 1,94</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 261,23</t>
+          <t>-46,32; 246,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,28; 213,42</t>
+          <t>-49,52; 212,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 336,83</t>
+          <t>-8,08; 346,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,64; 86,04</t>
+          <t>-58,75; 86,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,34; 84,71</t>
+          <t>-56,86; 80,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 36,49</t>
+          <t>-58,31; 37,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 104,11</t>
+          <t>-34,89; 104,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,43; 80,88</t>
+          <t>-37,45; 76,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 102,56</t>
+          <t>-21,83; 95,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,38</t>
+          <t>0,47; 2,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,11</t>
+          <t>-0,63; 1,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,09</t>
+          <t>1,08; 3,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,66</t>
+          <t>3,14; 5,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,8</t>
+          <t>-0,42; 1,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,39</t>
+          <t>1,29; 3,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,85</t>
+          <t>2,14; 3,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,21</t>
+          <t>-0,21; 1,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,01</t>
+          <t>1,64; 3,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,41; 87,27</t>
+          <t>12,68; 86,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 41,3</t>
+          <t>-18,12; 41,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,15; 112,84</t>
+          <t>28,99; 108,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,96; 130,94</t>
+          <t>57,17; 129,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 40,7</t>
+          <t>-7,26; 42,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>22,44; 79,65</t>
+          <t>24,67; 84,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,29; 105,79</t>
+          <t>47,48; 98,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 32,6</t>
+          <t>-4,81; 30,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,53; 81,41</t>
+          <t>38,21; 84,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,18</t>
+          <t>-0,44; 4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,77</t>
+          <t>-1,6; 2,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 10,62</t>
+          <t>4,58; 10,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,58</t>
+          <t>5,66; 10,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,12</t>
+          <t>1,17; 5,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,36</t>
+          <t>8,33; 13,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,09</t>
+          <t>3,61; 6,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,84</t>
+          <t>0,53; 3,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,42</t>
+          <t>7,52; 11,62</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 91,11</t>
+          <t>-6,94; 98,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 62,88</t>
+          <t>-23,17; 63,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,46; 237,26</t>
+          <t>74,75; 245,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,92; 176,0</t>
+          <t>67,49; 167,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 97,74</t>
+          <t>13,68; 94,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>99,68; 218,15</t>
+          <t>99,93; 215,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,91; 124,02</t>
+          <t>50,58; 124,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,18; 67,52</t>
+          <t>7,53; 71,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>104,3; 200,82</t>
+          <t>104,66; 204,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,71</t>
+          <t>0,43; 2,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,61</t>
+          <t>-0,59; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,74</t>
+          <t>0,47; 2,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,5</t>
+          <t>1,66; 4,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,52</t>
+          <t>-1,01; 1,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,57</t>
+          <t>0,13; 2,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,28</t>
+          <t>1,34; 3,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,24</t>
+          <t>-0,35; 1,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,43</t>
+          <t>0,69; 2,39</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,49; 149,8</t>
+          <t>13,19; 157,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 88,99</t>
+          <t>-22,34; 100,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 147,49</t>
+          <t>13,71; 160,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,02; 172,02</t>
+          <t>42,38; 179,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 56,88</t>
+          <t>-25,2; 58,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 99,37</t>
+          <t>3,6; 110,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,77; 139,55</t>
+          <t>41,16; 137,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 53,66</t>
+          <t>-11,84; 52,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 104,07</t>
+          <t>22,11; 105,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,8</t>
+          <t>-1,06; 3,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,23</t>
+          <t>-1,47; 2,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,96</t>
+          <t>-0,06; 3,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,25</t>
+          <t>-2,97; 2,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 2,1</t>
+          <t>-2,99; 2,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,94</t>
+          <t>-3,16; 1,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,12</t>
+          <t>-1,46; 1,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,59</t>
+          <t>-1,43; 1,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,94</t>
+          <t>-0,88; 1,87</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,32; 246,04</t>
+          <t>-43,62; 268,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 212,75</t>
+          <t>-56,3; 218,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 346,74</t>
+          <t>-7,46; 349,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-58,75; 86,07</t>
+          <t>-57,15; 73,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 80,24</t>
+          <t>-57,32; 93,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 37,42</t>
+          <t>-58,04; 45,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 104,26</t>
+          <t>-40,69; 93,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 76,69</t>
+          <t>-41,21; 71,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 95,19</t>
+          <t>-26,5; 85,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,45</t>
+          <t>0,5; 2,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,15</t>
+          <t>-0,7; 1,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,0</t>
+          <t>1,1; 3,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,78</t>
+          <t>3,15; 5,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,82</t>
+          <t>-0,49; 1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,53</t>
+          <t>1,26; 3,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,69</t>
+          <t>2,14; 3,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,13</t>
+          <t>-0,19; 1,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,12</t>
+          <t>1,51; 2,97</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,68; 86,21</t>
+          <t>14,26; 93,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 41,18</t>
+          <t>-18,96; 42,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,99; 108,5</t>
+          <t>28,4; 114,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>57,17; 129,99</t>
+          <t>58,42; 134,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 42,63</t>
+          <t>-9,61; 39,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,67; 84,7</t>
+          <t>23,8; 79,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>47,48; 98,4</t>
+          <t>49,76; 102,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 30,71</t>
+          <t>-4,53; 32,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,21; 84,39</t>
+          <t>34,48; 81,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>9,15</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,25</t>
+          <t>4,29; 9,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 13,14</t>
+          <t>8,13; 12,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,62</t>
+          <t>7,23; 11,29</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>134,15%</t>
+          <t>128,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>151,04%</t>
+          <t>148,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>148,71%</t>
+          <t>144,0%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,75; 245,93</t>
+          <t>70,01; 238,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>99,93; 215,28</t>
+          <t>97,47; 209,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>104,66; 204,06</t>
+          <t>101,0; 198,65</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,14</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,74</t>
+          <t>-0,15; 2,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,76</t>
+          <t>-0,48; 2,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,39</t>
+          <t>0,21; 2,03</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>71,57%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>41,47%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 160,96</t>
+          <t>-2,91; 136,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 110,04</t>
+          <t>-11,72; 96,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,11; 105,27</t>
+          <t>7,09; 91,45</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,78</t>
+          <t>-0,12; 3,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,09</t>
+          <t>-3,19; 1,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,87</t>
+          <t>-0,91; 1,83</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100,08%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,64%</t>
+          <t>-24,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>19,26%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 349,91</t>
+          <t>-8,42; 352,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,04; 45,17</t>
+          <t>-58,48; 43,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 85,13</t>
+          <t>-26,87; 84,84</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,83</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,11</t>
+          <t>0,35; 2,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,4</t>
+          <t>0,67; 3,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,97</t>
+          <t>0,8; 2,56</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>65,77%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>45,48%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,4; 114,46</t>
+          <t>9,64; 101,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,8; 79,76</t>
+          <t>12,21; 70,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,48; 81,81</t>
+          <t>19,75; 68,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,34</t>
+          <t>-0,29; 4,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,79</t>
+          <t>-1,5; 2,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,95</t>
+          <t>3,97; 10,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,4</t>
+          <t>5,33; 10,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,97</t>
+          <t>1,24; 6,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,91</t>
+          <t>8,37; 13,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,97</t>
+          <t>3,7; 7,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,97</t>
+          <t>0,54; 3,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,29</t>
+          <t>7,26; 11,15</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 98,06</t>
+          <t>-4,89; 92,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 63,65</t>
+          <t>-24,35; 67,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,01; 238,07</t>
+          <t>63,29; 221,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,49; 167,64</t>
+          <t>62,19; 168,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 94,6</t>
+          <t>12,8; 97,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>97,47; 209,26</t>
+          <t>98,2; 220,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 124,51</t>
+          <t>52,71; 130,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 71,21</t>
+          <t>7,42; 67,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>101,0; 198,65</t>
+          <t>101,72; 192,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,74</t>
+          <t>0,38; 2,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,72</t>
+          <t>-0,45; 1,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,39</t>
+          <t>-0,09; 2,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,6</t>
+          <t>1,69; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,47</t>
+          <t>-0,96; 1,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,41</t>
+          <t>-0,58; 2,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,23</t>
+          <t>1,3; 3,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,27</t>
+          <t>-0,47; 1,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,03</t>
+          <t>0,14; 2,08</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,19; 157,02</t>
+          <t>10,35; 165,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 100,79</t>
+          <t>-16,43; 97,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 136,29</t>
+          <t>-0,62; 141,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,38; 179,53</t>
+          <t>43,02; 173,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 58,53</t>
+          <t>-24,47; 55,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 96,99</t>
+          <t>-14,44; 90,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,16; 137,34</t>
+          <t>41,83; 138,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 52,53</t>
+          <t>-14,36; 50,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 91,45</t>
+          <t>5,2; 90,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,04</t>
+          <t>-1,11; 2,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,37</t>
+          <t>-1,31; 2,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,75</t>
+          <t>-0,01; 3,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,06</t>
+          <t>-2,55; 2,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,17</t>
+          <t>-3,01; 2,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,07</t>
+          <t>-3,24; 0,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,95</t>
+          <t>-1,21; 2,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,53</t>
+          <t>-1,4; 1,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,83</t>
+          <t>-0,83; 1,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,62; 268,96</t>
+          <t>-43,41; 241,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 218,46</t>
+          <t>-53,42; 213,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 352,68</t>
+          <t>-7,91; 332,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,15; 73,33</t>
+          <t>-52,38; 105,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,32; 93,58</t>
+          <t>-57,34; 79,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,48; 43,19</t>
+          <t>-56,54; 30,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 93,95</t>
+          <t>-33,29; 97,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 71,25</t>
+          <t>-40,24; 77,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 84,84</t>
+          <t>-24,76; 93,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,5</t>
+          <t>0,46; 2,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,17</t>
+          <t>-0,64; 1,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,75</t>
+          <t>0,34; 2,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,64</t>
+          <t>3,19; 5,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,75</t>
+          <t>-0,48; 1,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,13</t>
+          <t>0,62; 3,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,77</t>
+          <t>2,17; 3,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,24</t>
+          <t>-0,18; 1,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,56</t>
+          <t>0,92; 2,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,26; 93,03</t>
+          <t>12,22; 86,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 42,68</t>
+          <t>-17,98; 42,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,64; 101,45</t>
+          <t>10,56; 93,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,42; 134,75</t>
+          <t>59,02; 130,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 39,86</t>
+          <t>-8,37; 40,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,21; 70,42</t>
+          <t>13,12; 71,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,76; 102,39</t>
+          <t>48,5; 101,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 32,52</t>
+          <t>-4,25; 34,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,75; 68,69</t>
+          <t>19,85; 72,01</t>
         </is>
       </c>
     </row>
